--- a/GroceryApp/src/main/resources/data.xlsx
+++ b/GroceryApp/src/main/resources/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshm\eclipse-check\GroceryApp\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshm\git\checkGroceyApp\GroceryApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399EBA7C-5E81-428D-AA30-0243B1CFCBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E37AAC-FDD9-4F99-A69A-F95A474E84B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,25 +345,25 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>111</v>
       </c>
-      <c r="B1" s="1">
-        <v>708</v>
+      <c r="B1">
+        <v>190</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>123</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>324</v>
       </c>
       <c r="C2" s="1"/>

--- a/GroceryApp/src/main/resources/data.xlsx
+++ b/GroceryApp/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshm\git\checkGroceyApp\GroceryApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E37AAC-FDD9-4F99-A69A-F95A474E84B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101819B4-4F13-4DC9-B6D6-F3AEB90C55D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,7 +341,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -355,7 +351,7 @@
         <v>111</v>
       </c>
       <c r="B1">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1"/>
     </row>

--- a/GroceryApp/src/main/resources/data.xlsx
+++ b/GroceryApp/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshm\git\checkGroceyApp\GroceryApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101819B4-4F13-4DC9-B6D6-F3AEB90C55D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C3B63-B3EA-4BD3-9CE6-9539265C5AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,26 +341,26 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B1">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B2">
-        <v>324</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1"/>
     </row>

--- a/GroceryApp/src/main/resources/data.xlsx
+++ b/GroceryApp/src/main/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshm\git\checkGroceyApp\GroceryApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C3B63-B3EA-4BD3-9CE6-9539265C5AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A42342F-7DDF-4604-A4B4-F0E4CBD037EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,7 +341,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -351,7 +351,7 @@
         <v>146</v>
       </c>
       <c r="B1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1"/>
     </row>
